--- a/output_data/charts/capacity-Reynoldsburg-1600000US3966390.xlsx
+++ b/output_data/charts/capacity-Reynoldsburg-1600000US3966390.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -510,13 +510,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2560</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -859,10 +859,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2800</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -871,37 +871,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14300</c:v>
+                  <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7600</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3300</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60800</c:v>
+                  <c:v>60.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>103900</c:v>
+                  <c:v>103.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273825</c:v>
+                  <c:v>273.825</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>206940</c:v>
+                  <c:v>206.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>253535</c:v>
+                  <c:v>253.535</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>298850</c:v>
+                  <c:v>298.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>2800</v>
+        <v>2.8</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>24000</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>14300</v>
+        <v>14.3</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>7600</v>
+        <v>7.6</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>3300</v>
+        <v>3.3</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>60800</v>
+        <v>60.8</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>103900</v>
+        <v>103.9</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>2560</v>
+        <v>2.56</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>273825</v>
+        <v>273.825</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>206940</v>
+        <v>206.94</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>253535</v>
+        <v>253.535</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>298850</v>
+        <v>298.85</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-Reynoldsburg-1600000US3966390.xlsx
+++ b/output_data/charts/capacity-Reynoldsburg-1600000US3966390.xlsx
@@ -895,13 +895,13 @@
                   <c:v>273.825</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>206.94</c:v>
+                  <c:v>214.48</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>253.535</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>298.85</c:v>
+                  <c:v>443.665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>206.94</v>
+        <v>214.48</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>298.85</v>
+        <v>443.665</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
